--- a/data/trans_dic/P34_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,33; 25,06</t>
+          <t>14,81; 28,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 26,03</t>
+          <t>13,52; 26,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,17; 25,06</t>
+          <t>11,89; 24,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 21,82</t>
+          <t>8,81; 20,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,39; 21,09</t>
+          <t>11,38; 21,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 21,85</t>
+          <t>11,02; 21,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,85; 22,46</t>
+          <t>12,05; 22,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,48</t>
+          <t>9,77; 20,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,23; 21,64</t>
+          <t>14,6; 22,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 21,88</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,7; 22,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10,1; 18,15</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>20,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,24%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 31,53</t>
+          <t>14,87; 29,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,91; 34,3</t>
+          <t>14,93; 29,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,38; 37,48</t>
+          <t>17,14; 34,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,82; 23,76</t>
+          <t>14,29; 30,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 26,54</t>
+          <t>13,36; 25,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,35; 28,02</t>
+          <t>13,49; 25,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 25,49</t>
+          <t>12,29; 24,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 28,05</t>
+          <t>11,13; 23,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,9; 30,21</t>
+          <t>15,52; 24,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,14; 25,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 27,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 24,11</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,91%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35,25%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,57; 30,77</t>
+          <t>3,2; 31,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 31,63</t>
+          <t>2,4; 33,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 29,18</t>
+          <t>2,15; 32,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 40,93</t>
+          <t>12,11; 76,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 42,33</t>
+          <t>18,89; 50,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,24; 39,67</t>
+          <t>20,06; 50,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 31,76</t>
+          <t>21,68; 52,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 32,06</t>
+          <t>17,38; 47,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 30,11</t>
+          <t>12,53; 34,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 35,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 35,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 59,89</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>19,46%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 25,41</t>
+          <t>16,22; 25,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,09; 27,26</t>
+          <t>15,86; 24,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,74; 27,14</t>
+          <t>15,12; 25,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 22,11</t>
+          <t>14,62; 27,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,52; 22,88</t>
+          <t>14,92; 22,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 23,91</t>
+          <t>15,29; 23,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,68; 22,41</t>
+          <t>15,59; 23,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,83; 23,85</t>
+          <t>12,99; 21,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 24,33</t>
+          <t>16,7; 22,91</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16,05; 22,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 22,97</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,98; 22,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>90646</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>70995</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>68182</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>71490</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>79935</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>65835</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>68234</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>78934</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>170581</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>136830</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>136416</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>150424</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>63705; 122172</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>49493; 97664</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>44897; 94259</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>45466; 105566</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>57919; 107844</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>46403; 88973</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48846; 92257</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>54767; 115331</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>137086; 211896</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>108167; 172242</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>107272; 172843</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>108651; 195281</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>78182</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68493</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>80563</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>89170</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>79937</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65311</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59118</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>68950</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>158118</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>133803</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>139681</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>158120</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>53449; 107497</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47530; 94022</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>55299; 111642</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>58916; 123950</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>56845; 107303</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45641; 87770</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>41156; 81212</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>47968; 101013</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>121765; 195557</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>105999; 168244</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>107917; 178169</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>119353; 203332</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13124</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9641</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47094</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33156</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27285</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29868</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34244</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46280</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36913</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39509</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81338</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3258; 32000</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1908; 26602</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1836; 27960</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14457; 90746</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19111; 50808</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16356; 41510</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17901; 43501</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19355; 53316</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25435; 70631</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19495; 56732</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21560; 60242</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>48102; 138192</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>181952</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149116</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>158386</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>207755</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>193028</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>158431</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>157220</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>182128</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>374980</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>307547</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>315606</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>389883</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>144571; 228493</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>121161; 190873</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>118820; 202322</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>153144; 286998</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>154452; 235737</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>128591; 195381</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>128350; 192147</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>143199; 232386</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>321729; 441421</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>257645; 353730</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>265997; 369497</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>322144; 487027</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
